--- a/03_Optimus/01_Documents Projet/01_Documents Organisation/Calendrier_EPSA.xlsx
+++ b/03_Optimus/01_Documents Projet/01_Documents Organisation/Calendrier_EPSA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gameiro Nicolas\Documents\EPSA\Intergen\03_Optimus\03_Documents Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gameiro Nicolas\Documents\EPSA\Intergen\03_Optimus\01_Documents Projet\01_Documents Organisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960A168-AED5-4BEE-855A-803740F539BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendrier" sheetId="14" r:id="rId1"/>
@@ -59,7 +60,7 @@
     <definedName name="ValeurDébutsemaine">IF(DébutSemaine="LUNDI",2,1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Calendrier!$A$1:$H$168</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>LUNDI</t>
   </si>
@@ -241,16 +242,37 @@
   <si>
     <t>Séance Roulage Vulcanix &amp; Rangement Bron</t>
   </si>
+  <si>
+    <t>Démarrage moteur</t>
+  </si>
+  <si>
+    <t>Lancement Préparation design Event</t>
+  </si>
+  <si>
+    <t>Essais 2</t>
+  </si>
+  <si>
+    <t>Essais 1</t>
+  </si>
+  <si>
+    <t>Début des stages 2As</t>
+  </si>
+  <si>
+    <t>Réglage LAS Bron</t>
+  </si>
+  <si>
+    <t>Passage sur Banc Moteur</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Trebuchet MS"/>
@@ -421,8 +443,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +676,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -733,8 +769,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -742,25 +778,34 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="40 % - Accent1" xfId="1" builtinId="31" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="3" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="4" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Détail jour" xfId="6"/>
-    <cellStyle name="En-tête de notes" xfId="8"/>
-    <cellStyle name="Jour" xfId="5"/>
+    <cellStyle name="Détail jour" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="En-tête de notes" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Jour" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Notes" xfId="7"/>
+    <cellStyle name="Notes" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Titre" xfId="9" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titre 2" xfId="10" builtinId="17" customBuiltin="1"/>
@@ -1135,15 +1180,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1230,15 +1275,15 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="I4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1446,24 +1491,24 @@
         <f ca="1"/>
         <v>43501</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A15" s="1">
@@ -1749,11 +1794,11 @@
     <row r="28" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A29" s="1">
@@ -2017,11 +2062,11 @@
     <row r="42" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A43" s="1">
@@ -2105,9 +2150,6 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="25" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -2142,11 +2184,17 @@
     <row r="48" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="C48" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10"/>
+      <c r="F48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="22">
@@ -2181,7 +2229,9 @@
     <row r="50" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="C50" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -2223,8 +2273,12 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10"/>
+      <c r="F52" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -2258,9 +2312,15 @@
     </row>
     <row r="54" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="B54" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="11"/>
@@ -2285,11 +2345,11 @@
     <row r="56" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A57" s="1">
@@ -2551,11 +2611,11 @@
     <row r="70" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
     </row>
     <row r="71" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A71" s="1">
@@ -2817,11 +2877,11 @@
     <row r="84" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
     </row>
     <row r="85" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A85" s="1">
@@ -3083,11 +3143,11 @@
     <row r="98" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
     </row>
     <row r="99" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A99" s="1">
@@ -3349,11 +3409,11 @@
     <row r="112" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
     </row>
     <row r="113" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A113" s="1">
@@ -3615,11 +3675,11 @@
     <row r="126" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
     </row>
     <row r="127" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A127" s="1">
@@ -3881,11 +3941,11 @@
     <row r="140" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="40"/>
     </row>
     <row r="141" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A141" s="1">
@@ -4147,11 +4207,11 @@
     <row r="154" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="36"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
     </row>
     <row r="155" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A155" s="1">
@@ -4413,14 +4473,26 @@
     <row r="168" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="36"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="36"/>
-      <c r="G168" s="36"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="40"/>
+      <c r="G168" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C168:G168"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C167:G167"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="C153:G153"/>
@@ -4434,18 +4506,6 @@
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C168:G168"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C167:G167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:G3 A5:G5 A7:G7 A9:G9 A11:G11 A13:B13">
@@ -4509,20 +4569,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seuls les jours de la liste déroulante peuvent être utilisés pour les titres des jours de la semaine. Pour sélectionner un autre jour de la semaine, sélectionnez ANNULER, puis ALT + flèche bas pour faire votre choix dans la liste déroulante" prompt="Sélectionnez le premier jour de la semaine dans la liste déroulante. Appuyez sur ALT + Bas pour ouvrir la liste déroulante, puis appuyez sur ENTRÉE pour sélectionner un jour. Le calendrier se met automatiquement à jour." sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seuls les jours de la liste déroulante peuvent être utilisés pour les titres des jours de la semaine. Pour sélectionner un autre jour de la semaine, sélectionnez ANNULER, puis ALT + flèche bas pour faire votre choix dans la liste déroulante" prompt="Sélectionnez le premier jour de la semaine dans la liste déroulante. Appuyez sur ALT + Bas pour ouvrir la liste déroulante, puis appuyez sur ENTRÉE pour sélectionner un jour. Le calendrier se met automatiquement à jour." sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DIMANCHE,LUNDI,MARDI,MERCREDI,JEUDI,VENDREDI,SAMEDI"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez un mois dans la liste. Sélectionnez ANNULER, puis ALT + flèche bas pour faire votre choix dans la liste déroulante" prompt="Sélectionnez le mois de début du calendrier dans la liste déroulante. Appuyez sur ALT + Bas pour ouvrir la liste déroulante, puis appuyez sur ENTRÉE pour sélectionner l’un des éléments" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez un mois dans la liste. Sélectionnez ANNULER, puis ALT + flèche bas pour faire votre choix dans la liste déroulante" prompt="Sélectionnez le mois de début du calendrier dans la liste déroulante. Appuyez sur ALT + Bas pour ouvrir la liste déroulante, puis appuyez sur ENTRÉE pour sélectionner l’un des éléments" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"janvier,février,mars,avril,mai,juin,juillet,août,septembre,octobre,novembre,décembre"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez une année pour ce calendrier" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Jour de la semaine défini automatiquement Pour modifier les jours de la semaine, sélectionnez un nouveau jour de début de semaine dans la cellule B2." sqref="B2:G2 A16"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Date" sqref="A3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Ajouter des notes mensuelles ici" sqref="C14"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Titre des notes mensuelles" sqref="C13"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Ajoutez des notes quotidiennes ici" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Année civile définie automatiquement par la saisie de l’année dans la cellule B1" sqref="A15"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Décalage mensuel du calendrier pour le mois sélectionné dans la cellule C1" sqref="B15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez une année pour ce calendrier" sqref="A1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Jour de la semaine défini automatiquement Pour modifier les jours de la semaine, sélectionnez un nouveau jour de début de semaine dans la cellule B2." sqref="B2:G2 A16" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Date" sqref="A3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Ajouter des notes mensuelles ici" sqref="C14" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Titre des notes mensuelles" sqref="C13" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Ajoutez des notes quotidiennes ici" sqref="A4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Année civile définie automatiquement par la saisie de l’année dans la cellule B1" sqref="A15" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Décalage mensuel du calendrier pour le mois sélectionné dans la cellule C1" sqref="B15" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
